--- a/biology/Zoologie/Hurleur_aux_mains_rousses/Hurleur_aux_mains_rousses.xlsx
+++ b/biology/Zoologie/Hurleur_aux_mains_rousses/Hurleur_aux_mains_rousses.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alouatta belzebul
 Le Hurleur aux mains rousses ou ouarabi (Alouatta belzebul) est une espèce de singe hurleur endémique du Brésil où l'on le rencontre principalement dans la région de l'Aragay. Son pelage est entièrement noir, excepté aux niveaux de ses mains, rousses, d'où son nom.
@@ -512,7 +524,9 @@
           <t>Découverte et taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite pour la première fois en 1766 par Carl von Linné sous le nom Simia belzebul. Buffon l'appelle Ouarine.
 </t>
@@ -543,7 +557,9 @@
           <t>Répartition géographique et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Alouatta belzebul est endémique du Brésil.
 </t>
